--- a/Configs/Ability.xlsx
+++ b/Configs/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="25500" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="词条表" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>词条参数</t>
   </si>
   <si>
-    <t>abilityId</t>
+    <t>id</t>
   </si>
   <si>
     <t>abilityLevel</t>
@@ -65,46 +65,46 @@
     <t>提升暴击率</t>
   </si>
   <si>
-    <t>0.04，0.08</t>
-  </si>
-  <si>
-    <t>0.1，0.15</t>
-  </si>
-  <si>
-    <t>0.17，0.23</t>
-  </si>
-  <si>
-    <t>0.25，0.32</t>
+    <t>0.04,0.08</t>
+  </si>
+  <si>
+    <t>0.1,0.15</t>
+  </si>
+  <si>
+    <t>0.17,0.23</t>
+  </si>
+  <si>
+    <t>0.25,0.32</t>
   </si>
   <si>
     <t>提升闪避率</t>
   </si>
   <si>
-    <t>0.05，0.09</t>
-  </si>
-  <si>
-    <t>0.1，0.14</t>
-  </si>
-  <si>
-    <t>0.15，0.19</t>
-  </si>
-  <si>
-    <t>0.20，0.25</t>
+    <t>0.05,0.09</t>
+  </si>
+  <si>
+    <t>0.1,0.14</t>
+  </si>
+  <si>
+    <t>0.15,0.19</t>
+  </si>
+  <si>
+    <t>0.20,0.25</t>
   </si>
   <si>
     <t>对耐久造成伤害增加倍率</t>
   </si>
   <si>
-    <t>0.11，0.2</t>
-  </si>
-  <si>
-    <t>0.21，0.3</t>
-  </si>
-  <si>
-    <t>0.31，0.4</t>
-  </si>
-  <si>
-    <t>0.41，0.5</t>
+    <t>0.11,0.2</t>
+  </si>
+  <si>
+    <t>0.21,0.3</t>
+  </si>
+  <si>
+    <t>0.31,0.4</t>
+  </si>
+  <si>
+    <t>0.41,0.5</t>
   </si>
   <si>
     <t>降低耐久减少量</t>
@@ -1043,7 +1043,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/Configs/Ability.xlsx
+++ b/Configs/Ability.xlsx
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>词条id</t>
   </si>
   <si>
+    <t>词条类型</t>
+  </si>
+  <si>
     <t>词条等级</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>abilityType</t>
   </si>
   <si>
     <t>abilityLevel</t>
@@ -1038,23 +1044,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.6833333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="12.4916666666667" customWidth="1"/>
+    <col min="2" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="12.4916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,257 +1073,314 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
+      <c r="C9">
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
+      <c r="C14">
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
       <c r="D15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
       <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
+      <c r="C19">
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Ability.xlsx
+++ b/Configs/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="词条表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>词条id</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>降低耐久减少量</t>
+  </si>
+  <si>
+    <t>增加道具栏位</t>
+  </si>
+  <si>
+    <t>1.0,1.0</t>
+  </si>
+  <si>
+    <t>增加生命值上限</t>
+  </si>
+  <si>
+    <t>5.0,5.0</t>
   </si>
 </sst>
 </file>
@@ -126,7 +138,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,12 +298,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -599,55 +624,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,76 +684,88 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1044,12 +1078,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1383,6 +1417,40 @@
         <v>27</v>
       </c>
     </row>
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Ability.xlsx
+++ b/Configs/Ability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Unity项目\BOOOM\BooomProject\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750570F6-AC81-44B5-9A70-9C8734061FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="词条表" sheetId="1" r:id="rId1"/>
@@ -131,14 +137,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,351 +154,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -506,251 +176,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -758,71 +186,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1072,29 +456,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6833333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="12.4916666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1162,7 +545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1179,7 +562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1196,7 +579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1213,7 +596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1230,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1247,7 +630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1264,7 +647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1281,7 +664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1298,7 +681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1315,7 +698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1332,7 +715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1349,7 +732,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1366,7 +749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1383,7 +766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1400,7 +783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1417,7 +800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1434,7 +817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1452,8 +835,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>